--- a/発注書.xlsx
+++ b/発注書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\Tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA00A2E-92EF-451F-84D8-DB18A3B835CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232BC209-F355-49D1-89D3-A805ADE9466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10785" yWindow="-13545" windowWidth="20910" windowHeight="13440" xr2:uid="{C16DBF36-8FC7-4766-954D-146A37F33576}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>苛立ち</t>
     <rPh sb="0" eb="2">
@@ -194,13 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>波動拳のモーション（全身）</t>
-    <rPh sb="10" eb="12">
-      <t>ゼンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飛んでいる画像（全身）</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
@@ -214,26 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鉄腕アトムのような感じでお願いします</t>
-    <rPh sb="0" eb="2">
-      <t>テツワン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩くモーション</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>もぶ敵</t>
     <rPh sb="2" eb="3">
       <t>テキ</t>
@@ -248,22 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体で約4秒ほどでお願いします</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>味方</t>
     <rPh sb="0" eb="2">
       <t>ミカタ</t>
@@ -311,25 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のものを三段階でお願いします（表情がだんだんわかっていくような感じで）</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サンダンカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>決め顔</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
@@ -687,9 +625,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>波動拳</t>
+    <t>波動拳(ロックマンXの波動拳ボイスみたいな感じでお願いします)</t>
     <rPh sb="0" eb="3">
       <t>ハドウケン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ハドウケン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のものを三段階でお願いします（表情がだんだんわかっていく（濃ゆくなる）ような感じで）</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サンダンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低2種種類でお願いします</t>
+    <rPh sb="3" eb="4">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波動拳の画像(全身)</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べる画像</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口を開けている画像、もぐもぐしている画像（閉じている・開いている）の計３つ</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ためている画像、放つ画像、中間の画像の計3つ</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄腕アトムのような感じ</t>
+    <rPh sb="0" eb="2">
+      <t>テツワン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーンの画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーンで出てくるAAのやつ</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽ばたかせるため手を水平方向と下げているのの2つ</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>スイヘイホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -950,13 +1036,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1307,17 +1393,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9F17A-6735-4935-8349-45587901B401}">
-  <dimension ref="B2:U92"/>
+  <dimension ref="B2:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1341,7 +1427,7 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.4">
@@ -1417,7 +1503,7 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1439,264 +1525,295 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B44" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B50" s="5" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
+      <c r="L47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="I63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="I64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B68" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" t="s">
-        <v>34</v>
-      </c>
-      <c r="L61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B66" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="I69" t="s">
+      <c r="J70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="J71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="I70" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C72" t="s">
+      <c r="J72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="J73" t="s">
         <v>57</v>
       </c>
-      <c r="F72" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B74" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
+      <c r="J74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="W81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="W83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
         <v>43</v>
       </c>
-      <c r="J80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="J82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C84" t="s">
-        <v>50</v>
-      </c>
       <c r="J84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="W85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="J86" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="J87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="J88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="J89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="J90" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C92" t="s">
-        <v>65</v>
-      </c>
-      <c r="J92" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/発注書.xlsx
+++ b/発注書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\Tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232BC209-F355-49D1-89D3-A805ADE9466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B2745-C423-4AE7-81B8-D663B6A7B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="-13545" windowWidth="20910" windowHeight="13440" xr2:uid="{C16DBF36-8FC7-4766-954D-146A37F33576}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C16DBF36-8FC7-4766-954D-146A37F33576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,42 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
-  <si>
-    <t>苛立ち</t>
-    <rPh sb="0" eb="2">
-      <t>イラダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>怒り</t>
-    <rPh sb="0" eb="1">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>激怒</t>
-    <rPh sb="0" eb="2">
-      <t>ゲキド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嫌悪</t>
-    <rPh sb="0" eb="2">
-      <t>ケンオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心配</t>
-    <rPh sb="0" eb="2">
-      <t>シンパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>殴りの攻撃</t>
     <rPh sb="0" eb="1">
@@ -130,13 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>真顔</t>
-    <rPh sb="0" eb="2">
-      <t>マガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カエルを出す攻撃</t>
     <rPh sb="4" eb="5">
       <t>ダ</t>
@@ -228,56 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※感情（）のものは顔写真のみでお願いします</t>
-    <rPh sb="1" eb="3">
-      <t>カンジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジャシン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>警戒</t>
-    <rPh sb="0" eb="2">
-      <t>ケイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不安</t>
-    <rPh sb="0" eb="2">
-      <t>フアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>笑顔</t>
-    <rPh sb="0" eb="2">
-      <t>エガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決め顔</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お化け嫌いがお化け屋敷に連れていかれたときイメージ</t>
     <rPh sb="7" eb="8">
       <t>バ</t>
@@ -295,29 +203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変顔</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自由に三枚撮ってもらったら大丈夫です</t>
-    <rPh sb="0" eb="2">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サンマイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ストーム攻撃に使います</t>
     <rPh sb="4" eb="6">
       <t>コウゲキ</t>
@@ -372,13 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どや顔</t>
-    <rPh sb="2" eb="3">
-      <t>ガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>効果音</t>
     <rPh sb="0" eb="3">
       <t>コウカオン</t>
@@ -393,14 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最低三種類でお願いします（いくらとってもらっても構いません）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最低三種類でお願いします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>壁を叩かれたときのやつです</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
@@ -641,28 +511,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のものを三段階でお願いします（表情がだんだんわかっていく（濃ゆくなる）ような感じで）</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サンダンカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最低2種種類でお願いします</t>
     <rPh sb="3" eb="4">
       <t>シュ</t>
@@ -776,6 +624,203 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体のLevel1で使います</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由に撮ってもらったら大丈夫です</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強攻撃での画像に使います</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふみつける画像でお願いします</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁を抑える（全身）</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を受ける段階のところで使います（防壁として活用）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ボウヘキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※感情(感)のものは顔写真のみでお願いします</t>
+    <rPh sb="1" eb="3">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジャシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苛立ち(感)</t>
+    <rPh sb="0" eb="2">
+      <t>イラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怒り(感)</t>
+    <rPh sb="0" eb="1">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>激怒(感)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫌悪(感)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心配(感)</t>
+    <rPh sb="0" eb="2">
+      <t>シンパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真顔(感)</t>
+    <rPh sb="0" eb="2">
+      <t>マガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑顔(感)</t>
+    <rPh sb="0" eb="2">
+      <t>エガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警戒(感)</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不安(感)</t>
+    <rPh sb="0" eb="2">
+      <t>フアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決め顔(感)</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変顔(感)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どや顔(感)</t>
+    <rPh sb="2" eb="3">
+      <t>ガオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1075,6 +1120,67 @@
         <a:xfrm>
           <a:off x="7562850" y="10201275"/>
           <a:ext cx="2857500" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="ブーンAA｜顔文字ちゃんねる">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D7153E-BCB0-4DB1-B352-C65022DBD479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10972800" y="9220200"/>
+          <a:ext cx="2476500" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1393,17 +1499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9F17A-6735-4935-8349-45587901B401}">
-  <dimension ref="B2:W86"/>
+  <dimension ref="B2:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1427,83 +1533,83 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="132.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
         <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="126" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
         <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
         <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
         <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1527,44 +1633,44 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.4">
       <c r="G29" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B44" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1586,234 +1692,244 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" t="s">
         <v>22</v>
       </c>
-      <c r="L49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="L55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B60" s="8" t="s">
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
+      <c r="L60" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="I63" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="L62" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="I64" t="s">
-        <v>50</v>
-      </c>
+      <c r="B64" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="I67" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B68" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
+      <c r="I68" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="J71" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="J72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="J73" t="s">
-        <v>57</v>
-      </c>
+      <c r="B72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
       <c r="J74" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="J75" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C76" t="s">
-        <v>60</v>
-      </c>
       <c r="J76" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="J77" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C78" t="s">
-        <v>44</v>
-      </c>
       <c r="J78" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s">
         <v>45</v>
       </c>
-      <c r="J80" t="s">
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="W81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="W83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.4">
-      <c r="W85" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="N86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/発注書.xlsx
+++ b/発注書.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\Tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B2745-C423-4AE7-81B8-D663B6A7B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{405B2745-C423-4AE7-81B8-D663B6A7B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142D9E80-E2B5-4DE1-B607-5C8CF61EB6C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C16DBF36-8FC7-4766-954D-146A37F33576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+  <si>
+    <t>もぶ敵</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※感情(感)のものは顔写真のみでお願いします</t>
+    <rPh sb="1" eb="3">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジャシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苛立ち(感)</t>
+    <rPh sb="0" eb="2">
+      <t>イラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>殴りの攻撃</t>
     <rPh sb="0" eb="1">
@@ -46,12 +81,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>殴る手</t>
+    <rPh sb="0" eb="1">
+      <t>ナグ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の写真のようなものでお願いします</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怒り(感)</t>
+    <rPh sb="0" eb="1">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>蹴る攻撃</t>
     <rPh sb="0" eb="1">
       <t>ケ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蹴る足</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の写真のようなものでお願いします</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>激怒(感)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -72,12 +161,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>にゃんこ大戦争のネコカメカーのような攻撃</t>
-    <rPh sb="4" eb="7">
-      <t>ダイセンソウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウゲキ</t>
+    <t>心配(感)</t>
+    <rPh sb="0" eb="2">
+      <t>シンパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -95,6 +181,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>真顔(感)</t>
+    <rPh sb="0" eb="2">
+      <t>マガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>カエルを出す攻撃</t>
     <rPh sb="4" eb="5">
       <t>ダ</t>
@@ -105,46 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>殴る手</t>
-    <rPh sb="0" eb="1">
-      <t>ナグ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次の写真のようなものでお願いします</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蹴る足</t>
-    <rPh sb="0" eb="1">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次の写真のようなものでお願いします</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（カエルもどのカエルがいいとかあれば送ってください）</t>
     <rPh sb="18" eb="19">
       <t>オク</t>
@@ -152,26 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛んでいる画像（全身）</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゼンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もぶ敵</t>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス敵</t>
     <rPh sb="2" eb="3">
       <t>テキ</t>
@@ -179,6 +212,126 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ブーンの画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーンで出てくるAAのやつ</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽ばたかせるため手を水平方向と下げているのの2つ</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>スイヘイホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べる画像</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口を開けている画像、もぐもぐしている画像（閉じている・開いている）の計３つ</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波動拳の画像(全身)</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ためている画像、放つ画像、中間の画像の計3つ</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛んでいる画像（全身）</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄腕アトムのような感じ</t>
+    <rPh sb="0" eb="2">
+      <t>テツワン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>味方</t>
     <rPh sb="0" eb="2">
       <t>ミカタ</t>
@@ -186,6 +339,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>味方の感情のは軽くとしっかりの2パターンでお願いします。（笑顔で言う、口角が少し上がっているのと、満面の笑顔のような感じです）</t>
+  </si>
+  <si>
+    <t>笑顔(感)</t>
+    <rPh sb="0" eb="2">
+      <t>エガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル攻撃に使います</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警戒(感)</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアーウェーブ攻撃に使います</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不安(感)</t>
+    <rPh sb="0" eb="2">
+      <t>フアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>お化け嫌いがお化け屋敷に連れていかれたときイメージ</t>
     <rPh sb="7" eb="8">
       <t>バ</t>
@@ -199,7 +390,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>アイススラッシャー攻撃に使います</t>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決め顔(感)</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ボウリングイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローリング攻撃に使います</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変顔(感)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由に撮ってもらったら大丈夫です</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ダイジョウブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -213,36 +454,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ローリング攻撃に使います</t>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイススラッシャー攻撃に使います</t>
-    <rPh sb="9" eb="11">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイアーウェーブ攻撃に使います</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミサイル攻撃に使います</t>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
+    <t>どや顔(感)</t>
+    <rPh sb="2" eb="3">
+      <t>ガオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,6 +471,129 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>足</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふみつける画像でお願いします</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強攻撃での画像に使います</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁を抑える（全身）</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を受ける段階のところで使います（防壁として活用）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ボウヘキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <rPh sb="2" eb="3">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックマン風のBGMの鼻歌で3つお願いします</t>
+  </si>
+  <si>
+    <t>すべてばらばらのを参考にするので大丈夫です</t>
+    <rPh sb="9" eb="11">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージは最後にボスが出てきて終了のステージ</t>
+  </si>
+  <si>
+    <t>勝利・敗北BGM用の鼻歌</t>
+  </si>
+  <si>
+    <t>タイトルBGM用の鼻歌</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハナウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックマンタイトル参考でお願いします（好きな作品で大丈夫です）</t>
+    <rPh sb="9" eb="11">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>効果音</t>
     <rPh sb="0" eb="3">
       <t>コウカオン</t>
@@ -264,21 +601,118 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勝ったときのボイス</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壁を叩かれたときのやつです</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
+    <t>攻撃ボイス（敵側）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殴る、ける、突く用ので2種（おりゃ　みたいな感じ）</t>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコカメカー用ので1種（いてっ　みたいな感じ）</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投擲用ので１種（ふんっ　みたいな感じ）</t>
+    <rPh sb="0" eb="3">
+      <t>トウテキヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カエルだすので１種（ぽいっ　みたいな感じ）</t>
+  </si>
+  <si>
+    <t>でお願いします</t>
     <rPh sb="2" eb="3">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ボイス（ボス）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波動拳(ロックマンXの波動拳ボイスみたいな感じでお願いします)</t>
+    <rPh sb="0" eb="3">
+      <t>ハドウケン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ハドウケン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たべるやつ（もぐもぐ　みたいな感じ）</t>
+  </si>
+  <si>
+    <t>ブーンのやつ　（ブ～ン＾＾　みたいな感じ）</t>
+  </si>
+  <si>
+    <t>倒された時のボイス（敵側）</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2種種類でお願いします　（ぐっ　みたいな感じ）</t>
+  </si>
+  <si>
+    <t>倒されたときのボイス（ボス）</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２種でお願いします　（ぐわぁ　みたいな感じ）</t>
   </si>
   <si>
     <t>ダメージを食らったときの音（自陣側）</t>
@@ -291,6 +725,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2種種類でお願いします　（ぽこっ　みたいな感じ）</t>
+  </si>
+  <si>
+    <t>壁を叩かれたときのやつです</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>倒された時のボイス（自陣側）</t>
     <rPh sb="0" eb="1">
       <t>タオ</t>
@@ -304,532 +751,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>倒された時のボイス（敵側）</t>
-    <rPh sb="0" eb="1">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倒されたときのボイス（ボス）</t>
-    <rPh sb="0" eb="1">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２種×3でお願いします</t>
-    <rPh sb="1" eb="2">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロックマン風のBGMの鼻歌で3＋1つお願いします</t>
-    <rPh sb="5" eb="6">
-      <t>フウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハナウタ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すべてばらばらのを参考にするので大丈夫です</t>
-    <rPh sb="9" eb="11">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3つは最後にボスが出てきて終了のステージ</t>
-    <rPh sb="3" eb="5">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1つはエンドレスに敵が出続けるステージです</t>
-    <rPh sb="9" eb="10">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>デツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロックマンタイトル参考でお願いします（好きな作品で大丈夫です）</t>
-    <rPh sb="9" eb="11">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルBGM用の鼻歌</t>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハナウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃ボイス（敵側）</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネコカメカー用ので1種（いてっ　みたいな感じ）</t>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>殴る、ける、突く用ので2種（おりゃ　みたいな感じ）</t>
-    <rPh sb="22" eb="23">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投擲用ので１種（ふんっ　みたいな感じ）</t>
-    <rPh sb="0" eb="3">
-      <t>トウテキヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カエルだすので２種（嫌がる感じで大丈夫です）</t>
-    <rPh sb="8" eb="9">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イヤ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>でお願いします</t>
-    <rPh sb="2" eb="3">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <rPh sb="2" eb="3">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃ボイス（ボス）</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>波動拳(ロックマンXの波動拳ボイスみたいな感じでお願いします)</t>
-    <rPh sb="0" eb="3">
-      <t>ハドウケン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ハドウケン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最低2種種類でお願いします</t>
-    <rPh sb="3" eb="4">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>波動拳の画像(全身)</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゼンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食べる画像</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口を開けている画像、もぐもぐしている画像（閉じている・開いている）の計３つ</t>
-    <rPh sb="0" eb="1">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ためている画像、放つ画像、中間の画像の計3つ</t>
-    <rPh sb="5" eb="7">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チュウカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鉄腕アトムのような感じ</t>
-    <rPh sb="0" eb="2">
-      <t>テツワン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブーンの画像</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブーンで出てくるAAのやつ</t>
-    <rPh sb="4" eb="5">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>羽ばたかせるため手を水平方向と下げているのの2つ</t>
-    <rPh sb="0" eb="1">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>スイヘイホウコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全体のLevel1で使います</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自由に撮ってもらったら大丈夫です</t>
-    <rPh sb="0" eb="2">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>足</t>
-    <rPh sb="0" eb="1">
-      <t>アシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>強攻撃での画像に使います</t>
-    <rPh sb="0" eb="1">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふみつける画像でお願いします</t>
-    <rPh sb="5" eb="7">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壁を抑える（全身）</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゼンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃を受ける段階のところで使います（防壁として活用）</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ボウヘキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※感情(感)のものは顔写真のみでお願いします</t>
-    <rPh sb="1" eb="3">
-      <t>カンジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジャシン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>苛立ち(感)</t>
-    <rPh sb="0" eb="2">
-      <t>イラダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>怒り(感)</t>
-    <rPh sb="0" eb="1">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>激怒(感)</t>
-    <rPh sb="0" eb="2">
-      <t>ゲキド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嫌悪(感)</t>
-    <rPh sb="0" eb="2">
-      <t>ケンオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心配(感)</t>
-    <rPh sb="0" eb="2">
-      <t>シンパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>真顔(感)</t>
-    <rPh sb="0" eb="2">
-      <t>マガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>笑顔(感)</t>
-    <rPh sb="0" eb="2">
-      <t>エガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>警戒(感)</t>
-    <rPh sb="0" eb="2">
-      <t>ケイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不安(感)</t>
-    <rPh sb="0" eb="2">
-      <t>フアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決め顔(感)</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変顔(感)</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どや顔(感)</t>
-    <rPh sb="2" eb="3">
-      <t>ガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>2種種類でお願いします（やられたー　みたいな感じ）</t>
+  </si>
+  <si>
+    <t>勝ったときのボイス</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2種種類でお願いします　（やったぜ　みたいな感じ）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,7 +1142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1499,17 +1438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9F17A-6735-4935-8349-45587901B401}">
-  <dimension ref="B2:U90"/>
+  <dimension ref="B2:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1531,38 +1470,38 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21">
       <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="C5" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="132.75" customHeight="1"/>
+    <row r="10" spans="2:21" ht="18" customHeight="1"/>
+    <row r="11" spans="2:21">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="132.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:21">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1570,46 +1509,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="126" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:21" ht="126" customHeight="1"/>
+    <row r="16" spans="2:21" ht="18" customHeight="1"/>
+    <row r="17" spans="2:21">
       <c r="C17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
       <c r="C19" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="C21" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1631,46 +1562,46 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:21">
       <c r="C28" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
       <c r="G29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
       <c r="C31" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
       <c r="C33" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
       <c r="C35" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
       <c r="B44" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1692,96 +1623,93 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:21">
       <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="L46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
       <c r="C48" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
       <c r="C50" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
       <c r="C52" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="L52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
       <c r="C54" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
       <c r="C56" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
       <c r="C58" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
       <c r="C60" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
       <c r="C62" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="L62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
       <c r="B64" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1803,35 +1731,33 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:21">
       <c r="C66" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="I67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="I68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+      <c r="N66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21">
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21">
       <c r="C70" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21">
       <c r="B72" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1853,83 +1779,93 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:21">
       <c r="C74" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21">
       <c r="J75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21">
       <c r="J76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21">
       <c r="J77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21">
       <c r="J78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21">
       <c r="C80" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
-        <v>28</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16">
+      <c r="J81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16">
       <c r="J82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16">
       <c r="C84" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="J84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16">
       <c r="C86" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
-      </c>
-      <c r="N86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16">
       <c r="C88" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="P88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16">
       <c r="C90" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16">
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="J92" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
